--- a/data/2024-25_Rest_of_Season_Rankings_Projections_updated_daily.xlsx
+++ b/data/2024-25_Rest_of_Season_Rankings_Projections_updated_daily.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7865" uniqueCount="2339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7865" uniqueCount="2338">
   <si>
     <t>R#</t>
   </si>
@@ -1606,57 +1606,60 @@
     <t>72</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
@@ -1693,9 +1696,6 @@
     <t>59</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -4889,9 +4889,6 @@
   </si>
   <si>
     <t>-5.57</t>
-  </si>
-  <si>
-    <t>-5.58</t>
   </si>
   <si>
     <t>-5.59</t>
@@ -7500,10 +7497,10 @@
         <v>1331</v>
       </c>
       <c r="Q2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="R2" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7556,10 +7553,10 @@
         <v>1332</v>
       </c>
       <c r="Q3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="R3" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7612,10 +7609,10 @@
         <v>1333</v>
       </c>
       <c r="Q4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="R4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -7668,10 +7665,10 @@
         <v>1334</v>
       </c>
       <c r="Q5" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="R5" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -7724,10 +7721,10 @@
         <v>1335</v>
       </c>
       <c r="Q6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="R6" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -7780,10 +7777,10 @@
         <v>1336</v>
       </c>
       <c r="Q7" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="R7" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -7836,10 +7833,10 @@
         <v>1337</v>
       </c>
       <c r="Q8" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="R8" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7892,10 +7889,10 @@
         <v>1338</v>
       </c>
       <c r="Q9" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="R9" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7948,10 +7945,10 @@
         <v>1339</v>
       </c>
       <c r="Q10" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="R10" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -8004,10 +8001,10 @@
         <v>1340</v>
       </c>
       <c r="Q11" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R11" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -8060,10 +8057,10 @@
         <v>1341</v>
       </c>
       <c r="Q12" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="R12" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -8116,10 +8113,10 @@
         <v>1342</v>
       </c>
       <c r="Q13" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="R13" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -8172,10 +8169,10 @@
         <v>1343</v>
       </c>
       <c r="Q14" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="R14" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -8228,10 +8225,10 @@
         <v>1344</v>
       </c>
       <c r="Q15" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="R15" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -8284,10 +8281,10 @@
         <v>1345</v>
       </c>
       <c r="Q16" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="R16" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -8340,10 +8337,10 @@
         <v>1346</v>
       </c>
       <c r="Q17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="R17" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -8396,10 +8393,10 @@
         <v>1347</v>
       </c>
       <c r="Q18" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="R18" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -8452,10 +8449,10 @@
         <v>1348</v>
       </c>
       <c r="Q19" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R19" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -8508,10 +8505,10 @@
         <v>1349</v>
       </c>
       <c r="Q20" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="R20" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -8564,10 +8561,10 @@
         <v>1350</v>
       </c>
       <c r="Q21" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="R21" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -8620,10 +8617,10 @@
         <v>1351</v>
       </c>
       <c r="Q22" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="R22" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -8676,10 +8673,10 @@
         <v>1352</v>
       </c>
       <c r="Q23" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="R23" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -8732,10 +8729,10 @@
         <v>1353</v>
       </c>
       <c r="Q24" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="R24" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -8788,10 +8785,10 @@
         <v>1354</v>
       </c>
       <c r="Q25" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="R25" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -8844,10 +8841,10 @@
         <v>1355</v>
       </c>
       <c r="Q26" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="R26" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -8900,10 +8897,10 @@
         <v>1356</v>
       </c>
       <c r="Q27" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="R27" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -8956,10 +8953,10 @@
         <v>1357</v>
       </c>
       <c r="Q28" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="R28" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -9012,10 +9009,10 @@
         <v>1358</v>
       </c>
       <c r="Q29" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="R29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -9068,10 +9065,10 @@
         <v>1359</v>
       </c>
       <c r="Q30" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="R30" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -9124,10 +9121,10 @@
         <v>1360</v>
       </c>
       <c r="Q31" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="R31" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -9180,10 +9177,10 @@
         <v>1361</v>
       </c>
       <c r="Q32" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="R32" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -9236,10 +9233,10 @@
         <v>1362</v>
       </c>
       <c r="Q33" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="R33" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -9292,10 +9289,10 @@
         <v>1363</v>
       </c>
       <c r="Q34" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="R34" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -9348,10 +9345,10 @@
         <v>1364</v>
       </c>
       <c r="Q35" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="R35" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -9404,10 +9401,10 @@
         <v>1365</v>
       </c>
       <c r="Q36" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="R36" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -9460,10 +9457,10 @@
         <v>1366</v>
       </c>
       <c r="Q37" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="R37" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9516,10 +9513,10 @@
         <v>1367</v>
       </c>
       <c r="Q38" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="R38" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -9572,10 +9569,10 @@
         <v>1368</v>
       </c>
       <c r="Q39" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="R39" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -9628,10 +9625,10 @@
         <v>1369</v>
       </c>
       <c r="Q40" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="R40" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -9684,10 +9681,10 @@
         <v>1370</v>
       </c>
       <c r="Q41" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R41" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -9740,10 +9737,10 @@
         <v>1371</v>
       </c>
       <c r="Q42" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="R42" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -9796,10 +9793,10 @@
         <v>1372</v>
       </c>
       <c r="Q43" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="R43" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -9852,10 +9849,10 @@
         <v>1373</v>
       </c>
       <c r="Q44" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="R44" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -9908,10 +9905,10 @@
         <v>1374</v>
       </c>
       <c r="Q45" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="R45" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -9964,10 +9961,10 @@
         <v>1375</v>
       </c>
       <c r="Q46" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="R46" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -10020,10 +10017,10 @@
         <v>1376</v>
       </c>
       <c r="Q47" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="R47" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -10076,10 +10073,10 @@
         <v>1377</v>
       </c>
       <c r="Q48" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="R48" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -10132,10 +10129,10 @@
         <v>1378</v>
       </c>
       <c r="Q49" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="R49" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -10188,10 +10185,10 @@
         <v>1379</v>
       </c>
       <c r="Q50" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="R50" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -10244,10 +10241,10 @@
         <v>1380</v>
       </c>
       <c r="Q51" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="R51" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -10300,10 +10297,10 @@
         <v>1381</v>
       </c>
       <c r="Q52" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="R52" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -10356,10 +10353,10 @@
         <v>1382</v>
       </c>
       <c r="Q53" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R53" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -10412,10 +10409,10 @@
         <v>1383</v>
       </c>
       <c r="Q54" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="R54" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -10468,10 +10465,10 @@
         <v>1384</v>
       </c>
       <c r="Q55" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="R55" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -10488,7 +10485,7 @@
         <v>501</v>
       </c>
       <c r="E56" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F56" t="s">
         <v>604</v>
@@ -10524,10 +10521,10 @@
         <v>1385</v>
       </c>
       <c r="Q56" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="R56" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -10580,10 +10577,10 @@
         <v>1386</v>
       </c>
       <c r="Q57" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="R57" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -10636,10 +10633,10 @@
         <v>1387</v>
       </c>
       <c r="Q58" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="R58" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -10656,7 +10653,7 @@
         <v>506</v>
       </c>
       <c r="E59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F59" t="s">
         <v>592</v>
@@ -10692,10 +10689,10 @@
         <v>1388</v>
       </c>
       <c r="Q59" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="R59" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -10748,10 +10745,10 @@
         <v>1389</v>
       </c>
       <c r="Q60" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="R60" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -10804,10 +10801,10 @@
         <v>1389</v>
       </c>
       <c r="Q61" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="R61" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -10860,10 +10857,10 @@
         <v>1390</v>
       </c>
       <c r="Q62" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="R62" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -10916,10 +10913,10 @@
         <v>1391</v>
       </c>
       <c r="Q63" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="R63" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -10972,10 +10969,10 @@
         <v>1392</v>
       </c>
       <c r="Q64" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="R64" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -11028,10 +11025,10 @@
         <v>1393</v>
       </c>
       <c r="Q65" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="R65" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -11084,10 +11081,10 @@
         <v>1394</v>
       </c>
       <c r="Q66" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="R66" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -11140,10 +11137,10 @@
         <v>1395</v>
       </c>
       <c r="Q67" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="R67" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -11160,7 +11157,7 @@
         <v>515</v>
       </c>
       <c r="E68" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F68" t="s">
         <v>618</v>
@@ -11196,10 +11193,10 @@
         <v>1395</v>
       </c>
       <c r="Q68" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="R68" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -11252,10 +11249,10 @@
         <v>1396</v>
       </c>
       <c r="Q69" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="R69" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -11272,7 +11269,7 @@
         <v>514</v>
       </c>
       <c r="E70" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F70" t="s">
         <v>588</v>
@@ -11308,10 +11305,10 @@
         <v>1397</v>
       </c>
       <c r="Q70" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="R70" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -11364,10 +11361,10 @@
         <v>1397</v>
       </c>
       <c r="Q71" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="R71" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -11420,10 +11417,10 @@
         <v>1398</v>
       </c>
       <c r="Q72" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="R72" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -11476,10 +11473,10 @@
         <v>1399</v>
       </c>
       <c r="Q73" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="R73" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -11496,7 +11493,7 @@
         <v>521</v>
       </c>
       <c r="E74" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F74" t="s">
         <v>618</v>
@@ -11532,10 +11529,10 @@
         <v>1400</v>
       </c>
       <c r="Q74" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="R74" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -11588,10 +11585,10 @@
         <v>1401</v>
       </c>
       <c r="Q75" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="R75" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -11644,10 +11641,10 @@
         <v>1402</v>
       </c>
       <c r="Q76" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="R76" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -11664,7 +11661,7 @@
         <v>495</v>
       </c>
       <c r="E77" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F77" t="s">
         <v>621</v>
@@ -11700,10 +11697,10 @@
         <v>1403</v>
       </c>
       <c r="Q77" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="R77" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -11756,10 +11753,10 @@
         <v>1404</v>
       </c>
       <c r="Q78" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="R78" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -11812,10 +11809,10 @@
         <v>1405</v>
       </c>
       <c r="Q79" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="R79" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -11868,10 +11865,10 @@
         <v>1406</v>
       </c>
       <c r="Q80" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R80" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -11924,10 +11921,10 @@
         <v>1407</v>
       </c>
       <c r="Q81" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="R81" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -11980,10 +11977,10 @@
         <v>1408</v>
       </c>
       <c r="Q82" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="R82" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -12036,10 +12033,10 @@
         <v>1409</v>
       </c>
       <c r="Q83" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="R83" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -12092,10 +12089,10 @@
         <v>1410</v>
       </c>
       <c r="Q84" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="R84" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -12112,7 +12109,7 @@
         <v>517</v>
       </c>
       <c r="E85" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F85" t="s">
         <v>599</v>
@@ -12148,10 +12145,10 @@
         <v>1411</v>
       </c>
       <c r="Q85" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="R85" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -12204,10 +12201,10 @@
         <v>1411</v>
       </c>
       <c r="Q86" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="R86" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -12224,7 +12221,7 @@
         <v>503</v>
       </c>
       <c r="E87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F87" t="s">
         <v>626</v>
@@ -12260,10 +12257,10 @@
         <v>1412</v>
       </c>
       <c r="Q87" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="R87" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -12280,7 +12277,7 @@
         <v>518</v>
       </c>
       <c r="E88" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="F88" t="s">
         <v>627</v>
@@ -12316,10 +12313,10 @@
         <v>1413</v>
       </c>
       <c r="Q88" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="R88" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -12372,10 +12369,10 @@
         <v>1414</v>
       </c>
       <c r="Q89" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="R89" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -12428,10 +12425,10 @@
         <v>1415</v>
       </c>
       <c r="Q90" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="R90" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -12484,10 +12481,10 @@
         <v>1416</v>
       </c>
       <c r="Q91" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="R91" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -12504,7 +12501,7 @@
         <v>509</v>
       </c>
       <c r="E92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F92" t="s">
         <v>577</v>
@@ -12540,10 +12537,10 @@
         <v>1417</v>
       </c>
       <c r="Q92" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="R92" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -12560,7 +12557,7 @@
         <v>504</v>
       </c>
       <c r="E93" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F93" t="s">
         <v>625</v>
@@ -12596,10 +12593,10 @@
         <v>1418</v>
       </c>
       <c r="Q93" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="R93" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -12616,7 +12613,7 @@
         <v>518</v>
       </c>
       <c r="E94" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F94" t="s">
         <v>604</v>
@@ -12652,10 +12649,10 @@
         <v>1418</v>
       </c>
       <c r="Q94" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="R94" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -12708,10 +12705,10 @@
         <v>1419</v>
       </c>
       <c r="Q95" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="R95" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -12764,10 +12761,10 @@
         <v>1420</v>
       </c>
       <c r="Q96" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="R96" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -12820,10 +12817,10 @@
         <v>1421</v>
       </c>
       <c r="Q97" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="R97" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -12876,10 +12873,10 @@
         <v>1422</v>
       </c>
       <c r="Q98" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="R98" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -12932,10 +12929,10 @@
         <v>1423</v>
       </c>
       <c r="Q99" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="R99" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -12988,10 +12985,10 @@
         <v>1424</v>
       </c>
       <c r="Q100" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="R100" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -13008,7 +13005,7 @@
         <v>521</v>
       </c>
       <c r="E101" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F101" t="s">
         <v>606</v>
@@ -13044,10 +13041,10 @@
         <v>1425</v>
       </c>
       <c r="Q101" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="R101" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -13100,10 +13097,10 @@
         <v>1426</v>
       </c>
       <c r="Q102" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="R102" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -13156,10 +13153,10 @@
         <v>1427</v>
       </c>
       <c r="Q103" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="R103" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -13212,10 +13209,10 @@
         <v>1428</v>
       </c>
       <c r="Q104" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="R104" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -13268,10 +13265,10 @@
         <v>1429</v>
       </c>
       <c r="Q105" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="R105" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -13324,10 +13321,10 @@
         <v>1430</v>
       </c>
       <c r="Q106" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="R106" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -13380,10 +13377,10 @@
         <v>1431</v>
       </c>
       <c r="Q107" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="R107" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -13436,10 +13433,10 @@
         <v>1432</v>
       </c>
       <c r="Q108" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="R108" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -13492,10 +13489,10 @@
         <v>1433</v>
       </c>
       <c r="Q109" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="R109" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -13548,10 +13545,10 @@
         <v>1434</v>
       </c>
       <c r="Q110" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="R110" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -13604,10 +13601,10 @@
         <v>1435</v>
       </c>
       <c r="Q111" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="R111" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -13660,10 +13657,10 @@
         <v>1436</v>
       </c>
       <c r="Q112" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="R112" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -13716,10 +13713,10 @@
         <v>1436</v>
       </c>
       <c r="Q113" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="R113" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -13772,10 +13769,10 @@
         <v>1437</v>
       </c>
       <c r="Q114" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="R114" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -13828,10 +13825,10 @@
         <v>1438</v>
       </c>
       <c r="Q115" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="R115" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -13884,10 +13881,10 @@
         <v>1439</v>
       </c>
       <c r="Q116" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="R116" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -13940,10 +13937,10 @@
         <v>1440</v>
       </c>
       <c r="Q117" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="R117" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -13996,10 +13993,10 @@
         <v>1441</v>
       </c>
       <c r="Q118" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="R118" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -14052,10 +14049,10 @@
         <v>1442</v>
       </c>
       <c r="Q119" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="R119" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -14108,10 +14105,10 @@
         <v>1442</v>
       </c>
       <c r="Q120" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="R120" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -14164,10 +14161,10 @@
         <v>1443</v>
       </c>
       <c r="Q121" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="R121" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -14220,10 +14217,10 @@
         <v>1444</v>
       </c>
       <c r="Q122" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="R122" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -14276,10 +14273,10 @@
         <v>1444</v>
       </c>
       <c r="Q123" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="R123" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -14296,7 +14293,7 @@
         <v>516</v>
       </c>
       <c r="E124" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F124" t="s">
         <v>629</v>
@@ -14332,10 +14329,10 @@
         <v>1445</v>
       </c>
       <c r="Q124" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="R124" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -14388,10 +14385,10 @@
         <v>1446</v>
       </c>
       <c r="Q125" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="R125" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -14444,10 +14441,10 @@
         <v>1447</v>
       </c>
       <c r="Q126" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="R126" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -14500,10 +14497,10 @@
         <v>1448</v>
       </c>
       <c r="Q127" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="R127" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -14520,7 +14517,7 @@
         <v>512</v>
       </c>
       <c r="E128" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F128" t="s">
         <v>642</v>
@@ -14556,10 +14553,10 @@
         <v>1448</v>
       </c>
       <c r="Q128" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="R128" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -14612,10 +14609,10 @@
         <v>1449</v>
       </c>
       <c r="Q129" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="R129" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -14668,10 +14665,10 @@
         <v>1450</v>
       </c>
       <c r="Q130" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="R130" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -14724,10 +14721,10 @@
         <v>1451</v>
       </c>
       <c r="Q131" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="R131" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -14744,7 +14741,7 @@
         <v>493</v>
       </c>
       <c r="E132" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F132" t="s">
         <v>645</v>
@@ -14780,10 +14777,10 @@
         <v>1452</v>
       </c>
       <c r="Q132" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="R132" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -14836,10 +14833,10 @@
         <v>1452</v>
       </c>
       <c r="Q133" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="R133" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -14892,10 +14889,10 @@
         <v>1453</v>
       </c>
       <c r="Q134" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="R134" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -14948,10 +14945,10 @@
         <v>1454</v>
       </c>
       <c r="Q135" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="R135" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -15004,10 +15001,10 @@
         <v>1455</v>
       </c>
       <c r="Q136" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="R136" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -15060,10 +15057,10 @@
         <v>1456</v>
       </c>
       <c r="Q137" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="R137" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -15116,10 +15113,10 @@
         <v>1457</v>
       </c>
       <c r="Q138" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="R138" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -15172,10 +15169,10 @@
         <v>1457</v>
       </c>
       <c r="Q139" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="R139" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -15228,10 +15225,10 @@
         <v>1458</v>
       </c>
       <c r="Q140" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="R140" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -15284,10 +15281,10 @@
         <v>1459</v>
       </c>
       <c r="Q141" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="R141" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -15340,10 +15337,10 @@
         <v>1460</v>
       </c>
       <c r="Q142" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="R142" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -15396,10 +15393,10 @@
         <v>1461</v>
       </c>
       <c r="Q143" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="R143" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -15452,10 +15449,10 @@
         <v>1462</v>
       </c>
       <c r="Q144" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="R144" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -15472,7 +15469,7 @@
         <v>496</v>
       </c>
       <c r="E145" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F145" t="s">
         <v>599</v>
@@ -15508,10 +15505,10 @@
         <v>1463</v>
       </c>
       <c r="Q145" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="R145" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -15564,10 +15561,10 @@
         <v>1464</v>
       </c>
       <c r="Q146" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="R146" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -15584,7 +15581,7 @@
         <v>498</v>
       </c>
       <c r="E147" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F147" t="s">
         <v>618</v>
@@ -15620,10 +15617,10 @@
         <v>1465</v>
       </c>
       <c r="Q147" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="R147" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -15676,10 +15673,10 @@
         <v>1466</v>
       </c>
       <c r="Q148" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="R148" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -15732,10 +15729,10 @@
         <v>1467</v>
       </c>
       <c r="Q149" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="R149" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -15788,10 +15785,10 @@
         <v>1468</v>
       </c>
       <c r="Q150" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="R150" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -15808,7 +15805,7 @@
         <v>520</v>
       </c>
       <c r="E151" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F151" t="s">
         <v>651</v>
@@ -15844,10 +15841,10 @@
         <v>1469</v>
       </c>
       <c r="Q151" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="R151" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -15900,10 +15897,10 @@
         <v>1469</v>
       </c>
       <c r="Q152" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="R152" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -15920,7 +15917,7 @@
         <v>502</v>
       </c>
       <c r="E153" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F153" t="s">
         <v>652</v>
@@ -15956,10 +15953,10 @@
         <v>1470</v>
       </c>
       <c r="Q153" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="R153" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -16012,10 +16009,10 @@
         <v>1471</v>
       </c>
       <c r="Q154" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="R154" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -16068,10 +16065,10 @@
         <v>1472</v>
       </c>
       <c r="Q155" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="R155" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -16124,10 +16121,10 @@
         <v>1473</v>
       </c>
       <c r="Q156" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="R156" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -16180,10 +16177,10 @@
         <v>1473</v>
       </c>
       <c r="Q157" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="R157" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -16233,10 +16230,10 @@
         <v>1474</v>
       </c>
       <c r="Q158" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="R158" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -16289,10 +16286,10 @@
         <v>1475</v>
       </c>
       <c r="Q159" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="R159" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -16345,10 +16342,10 @@
         <v>1476</v>
       </c>
       <c r="Q160" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="R160" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -16401,10 +16398,10 @@
         <v>1477</v>
       </c>
       <c r="Q161" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="R161" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -16457,10 +16454,10 @@
         <v>1478</v>
       </c>
       <c r="Q162" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="R162" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -16513,10 +16510,10 @@
         <v>1479</v>
       </c>
       <c r="Q163" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="R163" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -16569,10 +16566,10 @@
         <v>1480</v>
       </c>
       <c r="Q164" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="R164" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -16625,10 +16622,10 @@
         <v>1481</v>
       </c>
       <c r="Q165" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="R165" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -16681,10 +16678,10 @@
         <v>1482</v>
       </c>
       <c r="Q166" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="R166" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -16737,10 +16734,10 @@
         <v>1483</v>
       </c>
       <c r="Q167" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="R167" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -16793,10 +16790,10 @@
         <v>1484</v>
       </c>
       <c r="Q168" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="R168" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -16813,7 +16810,7 @@
         <v>516</v>
       </c>
       <c r="E169" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F169" t="s">
         <v>659</v>
@@ -16849,10 +16846,10 @@
         <v>1485</v>
       </c>
       <c r="Q169" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="R169" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -16905,10 +16902,10 @@
         <v>1486</v>
       </c>
       <c r="Q170" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="R170" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -16961,10 +16958,10 @@
         <v>1487</v>
       </c>
       <c r="Q171" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="R171" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -16981,7 +16978,7 @@
         <v>515</v>
       </c>
       <c r="E172" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F172" t="s">
         <v>661</v>
@@ -17017,10 +17014,10 @@
         <v>1488</v>
       </c>
       <c r="Q172" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="R172" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -17073,10 +17070,10 @@
         <v>1489</v>
       </c>
       <c r="Q173" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="R173" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -17129,10 +17126,10 @@
         <v>1489</v>
       </c>
       <c r="Q174" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R174" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -17185,10 +17182,10 @@
         <v>1490</v>
       </c>
       <c r="Q175" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="R175" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -17241,10 +17238,10 @@
         <v>1491</v>
       </c>
       <c r="Q176" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="R176" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -17297,10 +17294,10 @@
         <v>1491</v>
       </c>
       <c r="Q177" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="R177" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -17317,7 +17314,7 @@
         <v>516</v>
       </c>
       <c r="E178" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F178" t="s">
         <v>641</v>
@@ -17353,10 +17350,10 @@
         <v>1492</v>
       </c>
       <c r="Q178" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="R178" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -17409,10 +17406,10 @@
         <v>1493</v>
       </c>
       <c r="Q179" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="R179" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -17429,7 +17426,7 @@
         <v>514</v>
       </c>
       <c r="E180" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F180" t="s">
         <v>663</v>
@@ -17465,10 +17462,10 @@
         <v>1494</v>
       </c>
       <c r="Q180" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="R180" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -17521,10 +17518,10 @@
         <v>1495</v>
       </c>
       <c r="Q181" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="R181" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -17577,10 +17574,10 @@
         <v>1495</v>
       </c>
       <c r="Q182" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="R182" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -17597,7 +17594,7 @@
         <v>496</v>
       </c>
       <c r="E183" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F183" t="s">
         <v>665</v>
@@ -17633,10 +17630,10 @@
         <v>1496</v>
       </c>
       <c r="Q183" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="R183" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -17689,10 +17686,10 @@
         <v>1496</v>
       </c>
       <c r="Q184" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="R184" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -17745,10 +17742,10 @@
         <v>1497</v>
       </c>
       <c r="Q185" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="R185" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -17801,10 +17798,10 @@
         <v>1497</v>
       </c>
       <c r="Q186" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="R186" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -17857,10 +17854,10 @@
         <v>1498</v>
       </c>
       <c r="Q187" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="R187" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -17913,10 +17910,10 @@
         <v>1499</v>
       </c>
       <c r="Q188" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="R188" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -17969,10 +17966,10 @@
         <v>1500</v>
       </c>
       <c r="Q189" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="R189" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -17989,7 +17986,7 @@
         <v>519</v>
       </c>
       <c r="E190" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F190" t="s">
         <v>642</v>
@@ -18025,10 +18022,10 @@
         <v>1501</v>
       </c>
       <c r="Q190" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="R190" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -18081,10 +18078,10 @@
         <v>1502</v>
       </c>
       <c r="Q191" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="R191" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -18137,10 +18134,10 @@
         <v>1503</v>
       </c>
       <c r="Q192" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="R192" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -18193,10 +18190,10 @@
         <v>1504</v>
       </c>
       <c r="Q193" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="R193" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -18249,10 +18246,10 @@
         <v>1505</v>
       </c>
       <c r="Q194" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="R194" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -18305,10 +18302,10 @@
         <v>1506</v>
       </c>
       <c r="Q195" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="R195" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -18361,10 +18358,10 @@
         <v>1507</v>
       </c>
       <c r="Q196" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="R196" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -18417,10 +18414,10 @@
         <v>1508</v>
       </c>
       <c r="Q197" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="R197" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -18473,10 +18470,10 @@
         <v>1509</v>
       </c>
       <c r="Q198" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="R198" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -18493,7 +18490,7 @@
         <v>499</v>
       </c>
       <c r="E199" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F199" t="s">
         <v>669</v>
@@ -18529,10 +18526,10 @@
         <v>1510</v>
       </c>
       <c r="Q199" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="R199" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -18585,10 +18582,10 @@
         <v>1511</v>
       </c>
       <c r="Q200" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="R200" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -18641,10 +18638,10 @@
         <v>1512</v>
       </c>
       <c r="Q201" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="R201" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -18661,7 +18658,7 @@
         <v>515</v>
       </c>
       <c r="E202" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F202" t="s">
         <v>635</v>
@@ -18697,10 +18694,10 @@
         <v>1513</v>
       </c>
       <c r="Q202" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="R202" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -18753,10 +18750,10 @@
         <v>1513</v>
       </c>
       <c r="Q203" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="R203" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -18809,10 +18806,10 @@
         <v>1514</v>
       </c>
       <c r="Q204" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="R204" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -18865,10 +18862,10 @@
         <v>1515</v>
       </c>
       <c r="Q205" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="R205" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -18885,7 +18882,7 @@
         <v>502</v>
       </c>
       <c r="E206" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F206" t="s">
         <v>675</v>
@@ -18921,10 +18918,10 @@
         <v>1516</v>
       </c>
       <c r="Q206" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="R206" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -18977,10 +18974,10 @@
         <v>1517</v>
       </c>
       <c r="Q207" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="R207" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -19033,10 +19030,10 @@
         <v>1517</v>
       </c>
       <c r="Q208" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="R208" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -19053,7 +19050,7 @@
         <v>495</v>
       </c>
       <c r="E209" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F209" t="s">
         <v>677</v>
@@ -19089,10 +19086,10 @@
         <v>1518</v>
       </c>
       <c r="Q209" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R209" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -19145,10 +19142,10 @@
         <v>1519</v>
       </c>
       <c r="Q210" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="R210" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -19201,10 +19198,10 @@
         <v>1520</v>
       </c>
       <c r="Q211" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R211" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -19257,10 +19254,10 @@
         <v>1521</v>
       </c>
       <c r="Q212" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="R212" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -19313,10 +19310,10 @@
         <v>1522</v>
       </c>
       <c r="Q213" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R213" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -19333,7 +19330,7 @@
         <v>493</v>
       </c>
       <c r="E214" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F214" t="s">
         <v>624</v>
@@ -19369,10 +19366,10 @@
         <v>1523</v>
       </c>
       <c r="Q214" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="R214" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -19425,10 +19422,10 @@
         <v>1524</v>
       </c>
       <c r="Q215" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="R215" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -19481,10 +19478,10 @@
         <v>1525</v>
       </c>
       <c r="Q216" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="R216" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -19537,10 +19534,10 @@
         <v>1525</v>
       </c>
       <c r="Q217" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="R217" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -19593,10 +19590,10 @@
         <v>1526</v>
       </c>
       <c r="Q218" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="R218" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -19649,10 +19646,10 @@
         <v>1527</v>
       </c>
       <c r="Q219" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="R219" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -19705,10 +19702,10 @@
         <v>1528</v>
       </c>
       <c r="Q220" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="R220" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -19725,7 +19722,7 @@
         <v>521</v>
       </c>
       <c r="E221" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F221" t="s">
         <v>685</v>
@@ -19761,10 +19758,10 @@
         <v>1529</v>
       </c>
       <c r="Q221" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="R221" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -19817,10 +19814,10 @@
         <v>1529</v>
       </c>
       <c r="Q222" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R222" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -19873,10 +19870,10 @@
         <v>1530</v>
       </c>
       <c r="Q223" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="R223" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -19929,10 +19926,10 @@
         <v>1531</v>
       </c>
       <c r="Q224" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="R224" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -19985,10 +19982,10 @@
         <v>1532</v>
       </c>
       <c r="Q225" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="R225" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -20041,10 +20038,10 @@
         <v>1533</v>
       </c>
       <c r="Q226" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="R226" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -20061,7 +20058,7 @@
         <v>492</v>
       </c>
       <c r="E227" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F227" t="s">
         <v>687</v>
@@ -20097,10 +20094,10 @@
         <v>1534</v>
       </c>
       <c r="Q227" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R227" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -20153,10 +20150,10 @@
         <v>1535</v>
       </c>
       <c r="Q228" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="R228" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -20209,10 +20206,10 @@
         <v>1536</v>
       </c>
       <c r="Q229" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="R229" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -20265,10 +20262,10 @@
         <v>1537</v>
       </c>
       <c r="Q230" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="R230" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -20321,10 +20318,10 @@
         <v>1538</v>
       </c>
       <c r="Q231" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="R231" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -20377,10 +20374,10 @@
         <v>1538</v>
       </c>
       <c r="Q232" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="R232" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -20433,10 +20430,10 @@
         <v>1539</v>
       </c>
       <c r="Q233" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="R233" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -20489,10 +20486,10 @@
         <v>1540</v>
       </c>
       <c r="Q234" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="R234" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -20545,10 +20542,10 @@
         <v>1541</v>
       </c>
       <c r="Q235" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="R235" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -20565,7 +20562,7 @@
         <v>500</v>
       </c>
       <c r="E236" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F236" t="s">
         <v>694</v>
@@ -20601,10 +20598,10 @@
         <v>1542</v>
       </c>
       <c r="Q236" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R236" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -20657,10 +20654,10 @@
         <v>1542</v>
       </c>
       <c r="Q237" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="R237" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -20713,10 +20710,10 @@
         <v>1543</v>
       </c>
       <c r="Q238" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R238" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -20769,10 +20766,10 @@
         <v>1544</v>
       </c>
       <c r="Q239" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="R239" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -20825,10 +20822,10 @@
         <v>1545</v>
       </c>
       <c r="Q240" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="R240" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -20881,10 +20878,10 @@
         <v>1546</v>
       </c>
       <c r="Q241" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="R241" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -20937,10 +20934,10 @@
         <v>1546</v>
       </c>
       <c r="Q242" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="R242" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -20993,10 +20990,10 @@
         <v>1547</v>
       </c>
       <c r="Q243" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="R243" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -21049,10 +21046,10 @@
         <v>1548</v>
       </c>
       <c r="Q244" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="R244" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -21105,10 +21102,10 @@
         <v>1549</v>
       </c>
       <c r="Q245" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R245" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -21161,10 +21158,10 @@
         <v>1550</v>
       </c>
       <c r="Q246" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R246" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -21217,10 +21214,10 @@
         <v>1551</v>
       </c>
       <c r="Q247" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="R247" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -21273,10 +21270,10 @@
         <v>1552</v>
       </c>
       <c r="Q248" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R248" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -21293,7 +21290,7 @@
         <v>518</v>
       </c>
       <c r="E249" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F249" t="s">
         <v>698</v>
@@ -21329,10 +21326,10 @@
         <v>1553</v>
       </c>
       <c r="Q249" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R249" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -21385,10 +21382,10 @@
         <v>1554</v>
       </c>
       <c r="Q250" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="R250" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -21441,10 +21438,10 @@
         <v>1555</v>
       </c>
       <c r="Q251" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="R251" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -21461,7 +21458,7 @@
         <v>499</v>
       </c>
       <c r="E252" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F252" t="s">
         <v>686</v>
@@ -21497,10 +21494,10 @@
         <v>1556</v>
       </c>
       <c r="Q252" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="R252" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -21553,10 +21550,10 @@
         <v>1557</v>
       </c>
       <c r="Q253" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="R253" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -21609,10 +21606,10 @@
         <v>1558</v>
       </c>
       <c r="Q254" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="R254" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -21665,10 +21662,10 @@
         <v>1559</v>
       </c>
       <c r="Q255" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R255" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -21721,10 +21718,10 @@
         <v>1560</v>
       </c>
       <c r="Q256" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="R256" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -21777,10 +21774,10 @@
         <v>1561</v>
       </c>
       <c r="Q257" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R257" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -21833,10 +21830,10 @@
         <v>1562</v>
       </c>
       <c r="Q258" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R258" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -21889,10 +21886,10 @@
         <v>1563</v>
       </c>
       <c r="Q259" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="R259" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -21945,10 +21942,10 @@
         <v>1564</v>
       </c>
       <c r="Q260" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R260" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -22001,10 +21998,10 @@
         <v>1565</v>
       </c>
       <c r="Q261" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="R261" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -22021,7 +22018,7 @@
         <v>511</v>
       </c>
       <c r="E262" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F262" t="s">
         <v>668</v>
@@ -22057,10 +22054,10 @@
         <v>1566</v>
       </c>
       <c r="Q262" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R262" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -22113,10 +22110,10 @@
         <v>1567</v>
       </c>
       <c r="Q263" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="R263" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -22169,10 +22166,10 @@
         <v>1568</v>
       </c>
       <c r="Q264" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="R264" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -22189,7 +22186,7 @@
         <v>508</v>
       </c>
       <c r="E265" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F265" t="s">
         <v>682</v>
@@ -22225,10 +22222,10 @@
         <v>1569</v>
       </c>
       <c r="Q265" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R265" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -22281,10 +22278,10 @@
         <v>1570</v>
       </c>
       <c r="Q266" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R266" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -22337,10 +22334,10 @@
         <v>1571</v>
       </c>
       <c r="Q267" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="R267" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -22393,10 +22390,10 @@
         <v>1572</v>
       </c>
       <c r="Q268" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="R268" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -22446,10 +22443,10 @@
         <v>1573</v>
       </c>
       <c r="Q269" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="R269" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -22466,7 +22463,7 @@
         <v>507</v>
       </c>
       <c r="E270" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F270" t="s">
         <v>685</v>
@@ -22502,10 +22499,10 @@
         <v>1574</v>
       </c>
       <c r="Q270" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R270" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -22558,10 +22555,10 @@
         <v>1575</v>
       </c>
       <c r="Q271" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R271" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -22614,10 +22611,10 @@
         <v>1575</v>
       </c>
       <c r="Q272" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="R272" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -22670,10 +22667,10 @@
         <v>1575</v>
       </c>
       <c r="Q273" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="R273" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -22726,10 +22723,10 @@
         <v>1576</v>
       </c>
       <c r="Q274" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R274" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -22782,10 +22779,10 @@
         <v>1577</v>
       </c>
       <c r="Q275" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="R275" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -22838,10 +22835,10 @@
         <v>1578</v>
       </c>
       <c r="Q276" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="R276" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -22894,10 +22891,10 @@
         <v>1578</v>
       </c>
       <c r="Q277" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="R277" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -22950,10 +22947,10 @@
         <v>1579</v>
       </c>
       <c r="Q278" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R278" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -23006,10 +23003,10 @@
         <v>1580</v>
       </c>
       <c r="Q279" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="R279" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -23062,10 +23059,10 @@
         <v>1581</v>
       </c>
       <c r="Q280" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R280" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -23118,10 +23115,10 @@
         <v>1582</v>
       </c>
       <c r="Q281" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="R281" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -23174,10 +23171,10 @@
         <v>1583</v>
       </c>
       <c r="Q282" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="R282" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -23230,10 +23227,10 @@
         <v>1584</v>
       </c>
       <c r="Q283" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R283" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -23250,7 +23247,7 @@
         <v>519</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F284" t="s">
         <v>685</v>
@@ -23286,10 +23283,10 @@
         <v>1585</v>
       </c>
       <c r="Q284" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="R284" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -23342,10 +23339,10 @@
         <v>1586</v>
       </c>
       <c r="Q285" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="R285" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -23362,7 +23359,7 @@
         <v>501</v>
       </c>
       <c r="E286" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F286" t="s">
         <v>716</v>
@@ -23398,10 +23395,10 @@
         <v>1587</v>
       </c>
       <c r="Q286" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="R286" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -23418,7 +23415,7 @@
         <v>506</v>
       </c>
       <c r="E287" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F287" t="s">
         <v>717</v>
@@ -23454,10 +23451,10 @@
         <v>1587</v>
       </c>
       <c r="Q287" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="R287" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -23510,10 +23507,10 @@
         <v>1588</v>
       </c>
       <c r="Q288" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="R288" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -23530,7 +23527,7 @@
         <v>508</v>
       </c>
       <c r="E289" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F289" t="s">
         <v>718</v>
@@ -23566,10 +23563,10 @@
         <v>1589</v>
       </c>
       <c r="Q289" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="R289" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -23622,10 +23619,10 @@
         <v>1590</v>
       </c>
       <c r="Q290" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="R290" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -23678,10 +23675,10 @@
         <v>1591</v>
       </c>
       <c r="Q291" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="R291" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -23698,7 +23695,7 @@
         <v>510</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F292" t="s">
         <v>721</v>
@@ -23734,10 +23731,10 @@
         <v>1592</v>
       </c>
       <c r="Q292" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="R292" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -23754,7 +23751,7 @@
         <v>492</v>
       </c>
       <c r="E293" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F293" t="s">
         <v>722</v>
@@ -23790,10 +23787,10 @@
         <v>1593</v>
       </c>
       <c r="Q293" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="R293" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -23846,10 +23843,10 @@
         <v>1594</v>
       </c>
       <c r="Q294" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="R294" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -23902,10 +23899,10 @@
         <v>1595</v>
       </c>
       <c r="Q295" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="R295" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -23958,10 +23955,10 @@
         <v>1596</v>
       </c>
       <c r="Q296" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="R296" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -24014,10 +24011,10 @@
         <v>1597</v>
       </c>
       <c r="Q297" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="R297" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -24070,10 +24067,10 @@
         <v>1598</v>
       </c>
       <c r="Q298" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="R298" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -24126,10 +24123,10 @@
         <v>1599</v>
       </c>
       <c r="Q299" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="R299" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -24182,10 +24179,10 @@
         <v>1600</v>
       </c>
       <c r="Q300" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="R300" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -24238,10 +24235,10 @@
         <v>1601</v>
       </c>
       <c r="Q301" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R301" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -24294,10 +24291,10 @@
         <v>1601</v>
       </c>
       <c r="Q302" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="R302" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -24350,10 +24347,10 @@
         <v>1602</v>
       </c>
       <c r="Q303" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="R303" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -24370,7 +24367,7 @@
         <v>507</v>
       </c>
       <c r="E304" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F304" t="s">
         <v>722</v>
@@ -24406,10 +24403,10 @@
         <v>1603</v>
       </c>
       <c r="Q304" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="R304" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -24426,7 +24423,7 @@
         <v>514</v>
       </c>
       <c r="E305" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F305" t="s">
         <v>686</v>
@@ -24462,10 +24459,10 @@
         <v>1604</v>
       </c>
       <c r="Q305" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="R305" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -24518,10 +24515,10 @@
         <v>1604</v>
       </c>
       <c r="Q306" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R306" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -24574,10 +24571,10 @@
         <v>1605</v>
       </c>
       <c r="Q307" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="R307" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -24594,7 +24591,7 @@
         <v>510</v>
       </c>
       <c r="E308" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F308" t="s">
         <v>728</v>
@@ -24630,10 +24627,10 @@
         <v>1606</v>
       </c>
       <c r="Q308" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="R308" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -24686,10 +24683,10 @@
         <v>1607</v>
       </c>
       <c r="Q309" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="R309" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -24742,10 +24739,10 @@
         <v>1608</v>
       </c>
       <c r="Q310" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R310" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -24762,7 +24759,7 @@
         <v>510</v>
       </c>
       <c r="E311" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F311" t="s">
         <v>705</v>
@@ -24798,10 +24795,10 @@
         <v>1609</v>
       </c>
       <c r="Q311" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R311" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -24854,10 +24851,10 @@
         <v>1610</v>
       </c>
       <c r="Q312" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="R312" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -24874,7 +24871,7 @@
         <v>513</v>
       </c>
       <c r="E313" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F313" t="s">
         <v>731</v>
@@ -24910,10 +24907,10 @@
         <v>1610</v>
       </c>
       <c r="Q313" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="R313" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -24930,7 +24927,7 @@
         <v>500</v>
       </c>
       <c r="E314" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F314" t="s">
         <v>688</v>
@@ -24966,10 +24963,10 @@
         <v>1611</v>
       </c>
       <c r="Q314" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="R314" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -24986,7 +24983,7 @@
         <v>501</v>
       </c>
       <c r="E315" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F315" t="s">
         <v>732</v>
@@ -25022,10 +25019,10 @@
         <v>1611</v>
       </c>
       <c r="Q315" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="R315" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -25042,7 +25039,7 @@
         <v>506</v>
       </c>
       <c r="E316" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F316" t="s">
         <v>733</v>
@@ -25078,10 +25075,10 @@
         <v>1612</v>
       </c>
       <c r="Q316" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="R316" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -25098,7 +25095,7 @@
         <v>493</v>
       </c>
       <c r="E317" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F317" t="s">
         <v>734</v>
@@ -25134,10 +25131,10 @@
         <v>1613</v>
       </c>
       <c r="Q317" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="R317" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -25190,10 +25187,10 @@
         <v>1614</v>
       </c>
       <c r="Q318" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="R318" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -25210,7 +25207,7 @@
         <v>511</v>
       </c>
       <c r="E319" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F319" t="s">
         <v>735</v>
@@ -25246,10 +25243,10 @@
         <v>1614</v>
       </c>
       <c r="Q319" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="R319" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -25302,10 +25299,10 @@
         <v>1615</v>
       </c>
       <c r="Q320" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="R320" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -25358,10 +25355,10 @@
         <v>1615</v>
       </c>
       <c r="Q321" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="R321" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -25411,10 +25408,10 @@
         <v>1616</v>
       </c>
       <c r="Q322" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="R322" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -25467,10 +25464,10 @@
         <v>1617</v>
       </c>
       <c r="Q323" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="R323" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -25523,10 +25520,10 @@
         <v>1618</v>
       </c>
       <c r="Q324" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="R324" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -25579,10 +25576,10 @@
         <v>1618</v>
       </c>
       <c r="Q325" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="R325" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -25635,10 +25632,10 @@
         <v>1619</v>
       </c>
       <c r="Q326" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="R326" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -25691,10 +25688,10 @@
         <v>1619</v>
       </c>
       <c r="Q327" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R327" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -25747,10 +25744,10 @@
         <v>1619</v>
       </c>
       <c r="Q328" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="R328" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -25767,7 +25764,7 @@
         <v>499</v>
       </c>
       <c r="E329" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F329" t="s">
         <v>723</v>
@@ -25803,10 +25800,10 @@
         <v>1620</v>
       </c>
       <c r="Q329" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="R329" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -25859,10 +25856,10 @@
         <v>1621</v>
       </c>
       <c r="Q330" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="R330" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -25912,10 +25909,10 @@
         <v>1622</v>
       </c>
       <c r="Q331" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R331" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -25968,10 +25965,10 @@
         <v>1623</v>
       </c>
       <c r="Q332" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="R332" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -25988,7 +25985,7 @@
         <v>512</v>
       </c>
       <c r="E333" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F333" t="s">
         <v>741</v>
@@ -26024,10 +26021,10 @@
         <v>1623</v>
       </c>
       <c r="Q333" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="R333" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -26080,10 +26077,10 @@
         <v>1624</v>
       </c>
       <c r="Q334" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="R334" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -26136,10 +26133,10 @@
         <v>1624</v>
       </c>
       <c r="Q335" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="R335" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -26156,7 +26153,7 @@
         <v>508</v>
       </c>
       <c r="E336" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F336" t="s">
         <v>740</v>
@@ -26189,13 +26186,13 @@
         <v>1244</v>
       </c>
       <c r="P336" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="Q336" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="R336" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -26212,7 +26209,7 @@
         <v>519</v>
       </c>
       <c r="E337" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F337" t="s">
         <v>722</v>
@@ -26245,13 +26242,13 @@
         <v>1216</v>
       </c>
       <c r="P337" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="Q337" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="R337" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -26301,13 +26298,13 @@
         <v>1246</v>
       </c>
       <c r="P338" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="Q338" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="R338" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -26324,7 +26321,7 @@
         <v>517</v>
       </c>
       <c r="E339" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F339" t="s">
         <v>740</v>
@@ -26357,13 +26354,13 @@
         <v>1241</v>
       </c>
       <c r="P339" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="Q339" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="R339" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -26380,7 +26377,7 @@
         <v>521</v>
       </c>
       <c r="E340" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F340" t="s">
         <v>719</v>
@@ -26413,13 +26410,13 @@
         <v>1241</v>
       </c>
       <c r="P340" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="Q340" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="R340" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -26469,13 +26466,13 @@
         <v>1215</v>
       </c>
       <c r="P341" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="Q341" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="R341" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -26492,7 +26489,7 @@
         <v>509</v>
       </c>
       <c r="E342" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F342" t="s">
         <v>743</v>
@@ -26525,13 +26522,13 @@
         <v>1238</v>
       </c>
       <c r="P342" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="Q342" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="R342" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -26548,7 +26545,7 @@
         <v>498</v>
       </c>
       <c r="E343" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F343" t="s">
         <v>705</v>
@@ -26581,13 +26578,13 @@
         <v>1241</v>
       </c>
       <c r="P343" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="Q343" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="R343" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -26637,13 +26634,13 @@
         <v>1238</v>
       </c>
       <c r="P344" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="Q344" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="R344" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -26693,13 +26690,13 @@
         <v>1216</v>
       </c>
       <c r="P345" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q345" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="R345" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -26749,13 +26746,13 @@
         <v>1247</v>
       </c>
       <c r="P346" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="Q346" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="R346" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -26805,13 +26802,13 @@
         <v>1231</v>
       </c>
       <c r="P347" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="Q347" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="R347" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -26861,13 +26858,13 @@
         <v>1246</v>
       </c>
       <c r="P348" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="Q348" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="R348" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -26917,13 +26914,13 @@
         <v>1216</v>
       </c>
       <c r="P349" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="Q349" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="R349" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -26973,13 +26970,13 @@
         <v>1244</v>
       </c>
       <c r="P350" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="Q350" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="R350" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -27029,13 +27026,13 @@
         <v>1241</v>
       </c>
       <c r="P351" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="Q351" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="R351" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -27052,7 +27049,7 @@
         <v>511</v>
       </c>
       <c r="E352" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F352" t="s">
         <v>705</v>
@@ -27085,13 +27082,13 @@
         <v>1244</v>
       </c>
       <c r="P352" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="Q352" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="R352" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -27141,13 +27138,13 @@
         <v>1231</v>
       </c>
       <c r="P353" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="Q353" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="R353" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -27197,13 +27194,13 @@
         <v>1211</v>
       </c>
       <c r="P354" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="Q354" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="R354" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -27253,13 +27250,13 @@
         <v>1231</v>
       </c>
       <c r="P355" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="Q355" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="R355" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -27309,13 +27306,13 @@
         <v>1247</v>
       </c>
       <c r="P356" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="Q356" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="R356" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -27332,7 +27329,7 @@
         <v>497</v>
       </c>
       <c r="E357" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F357" t="s">
         <v>698</v>
@@ -27365,13 +27362,13 @@
         <v>1241</v>
       </c>
       <c r="P357" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="Q357" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="R357" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -27388,7 +27385,7 @@
         <v>509</v>
       </c>
       <c r="E358" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F358" t="s">
         <v>745</v>
@@ -27421,13 +27418,13 @@
         <v>1241</v>
       </c>
       <c r="P358" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="Q358" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="R358" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -27444,7 +27441,7 @@
         <v>497</v>
       </c>
       <c r="E359" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F359" t="s">
         <v>736</v>
@@ -27477,13 +27474,13 @@
         <v>1238</v>
       </c>
       <c r="P359" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="Q359" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="R359" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -27500,7 +27497,7 @@
         <v>515</v>
       </c>
       <c r="E360" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F360" t="s">
         <v>746</v>
@@ -27533,13 +27530,13 @@
         <v>1216</v>
       </c>
       <c r="P360" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="Q360" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="R360" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -27589,13 +27586,13 @@
         <v>1246</v>
       </c>
       <c r="P361" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="Q361" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="R361" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -27645,13 +27642,13 @@
         <v>1214</v>
       </c>
       <c r="P362" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="Q362" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="R362" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -27701,13 +27698,13 @@
         <v>1244</v>
       </c>
       <c r="P363" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="Q363" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="R363" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -27724,7 +27721,7 @@
         <v>518</v>
       </c>
       <c r="E364" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F364" t="s">
         <v>736</v>
@@ -27757,13 +27754,13 @@
         <v>1215</v>
       </c>
       <c r="P364" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="Q364" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="R364" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -27813,13 +27810,13 @@
         <v>1238</v>
       </c>
       <c r="P365" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="Q365" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="R365" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -27869,13 +27866,13 @@
         <v>1231</v>
       </c>
       <c r="P366" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="Q366" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="R366" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -27892,7 +27889,7 @@
         <v>520</v>
       </c>
       <c r="E367" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F367" t="s">
         <v>748</v>
@@ -27925,13 +27922,13 @@
         <v>1241</v>
       </c>
       <c r="P367" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="Q367" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="R367" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -27948,7 +27945,7 @@
         <v>498</v>
       </c>
       <c r="E368" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F368" t="s">
         <v>749</v>
@@ -27981,13 +27978,13 @@
         <v>1231</v>
       </c>
       <c r="P368" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="Q368" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="R368" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -28004,7 +28001,7 @@
         <v>518</v>
       </c>
       <c r="E369" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F369" t="s">
         <v>732</v>
@@ -28037,13 +28034,13 @@
         <v>1246</v>
       </c>
       <c r="P369" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="Q369" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="R369" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -28093,13 +28090,13 @@
         <v>1241</v>
       </c>
       <c r="P370" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="Q370" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="R370" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -28149,13 +28146,13 @@
         <v>1246</v>
       </c>
       <c r="P371" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="Q371" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="R371" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -28205,13 +28202,13 @@
         <v>1244</v>
       </c>
       <c r="P372" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="Q372" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="R372" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -28261,13 +28258,13 @@
         <v>1216</v>
       </c>
       <c r="P373" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="Q373" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="R373" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -28284,7 +28281,7 @@
         <v>497</v>
       </c>
       <c r="E374" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F374" t="s">
         <v>750</v>
@@ -28317,13 +28314,13 @@
         <v>1231</v>
       </c>
       <c r="P374" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="Q374" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="R374" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -28373,13 +28370,13 @@
         <v>1238</v>
       </c>
       <c r="P375" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="Q375" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="R375" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -28396,7 +28393,7 @@
         <v>516</v>
       </c>
       <c r="E376" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F376" t="s">
         <v>731</v>
@@ -28429,13 +28426,13 @@
         <v>1231</v>
       </c>
       <c r="P376" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="Q376" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="R376" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -28485,13 +28482,13 @@
         <v>1241</v>
       </c>
       <c r="P377" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Q377" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="R377" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -28541,13 +28538,13 @@
         <v>1238</v>
       </c>
       <c r="P378" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="Q378" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="R378" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -28597,13 +28594,13 @@
         <v>1215</v>
       </c>
       <c r="P379" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="Q379" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="R379" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -28653,13 +28650,13 @@
         <v>1238</v>
       </c>
       <c r="P380" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="Q380" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="R380" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -28676,7 +28673,7 @@
         <v>512</v>
       </c>
       <c r="E381" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F381" t="s">
         <v>714</v>
@@ -28709,13 +28706,13 @@
         <v>1217</v>
       </c>
       <c r="P381" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="Q381" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="R381" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -28765,13 +28762,13 @@
         <v>1215</v>
       </c>
       <c r="P382" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="Q382" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="R382" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -28788,7 +28785,7 @@
         <v>513</v>
       </c>
       <c r="E383" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F383" t="s">
         <v>736</v>
@@ -28821,13 +28818,13 @@
         <v>1238</v>
       </c>
       <c r="P383" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="Q383" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="R383" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -28877,13 +28874,13 @@
         <v>1231</v>
       </c>
       <c r="P384" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="Q384" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="R384" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -28933,13 +28930,13 @@
         <v>1238</v>
       </c>
       <c r="P385" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="Q385" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="R385" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -28989,13 +28986,13 @@
         <v>1216</v>
       </c>
       <c r="P386" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="Q386" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="R386" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -29045,13 +29042,13 @@
         <v>1215</v>
       </c>
       <c r="P387" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="Q387" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="R387" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -29101,13 +29098,13 @@
         <v>1241</v>
       </c>
       <c r="P388" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="Q388" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="R388" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -29157,13 +29154,13 @@
         <v>1238</v>
       </c>
       <c r="P389" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="Q389" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="R389" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -29213,13 +29210,13 @@
         <v>1215</v>
       </c>
       <c r="P390" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="Q390" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R390" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -29269,13 +29266,13 @@
         <v>1216</v>
       </c>
       <c r="P391" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="Q391" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="R391" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -29325,13 +29322,13 @@
         <v>1238</v>
       </c>
       <c r="P392" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="Q392" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="R392" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -29381,13 +29378,13 @@
         <v>1236</v>
       </c>
       <c r="P393" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="Q393" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="R393" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -29437,13 +29434,13 @@
         <v>1241</v>
       </c>
       <c r="P394" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="Q394" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="R394" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -29493,13 +29490,13 @@
         <v>1235</v>
       </c>
       <c r="P395" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q395" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="R395" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -29549,13 +29546,13 @@
         <v>1238</v>
       </c>
       <c r="P396" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="Q396" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="R396" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -29605,13 +29602,13 @@
         <v>1246</v>
       </c>
       <c r="P397" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="Q397" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="R397" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -29661,13 +29658,13 @@
         <v>1215</v>
       </c>
       <c r="P398" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="Q398" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="R398" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -29717,13 +29714,13 @@
         <v>1215</v>
       </c>
       <c r="P399" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="Q399" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="R399" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -29773,13 +29770,13 @@
         <v>1215</v>
       </c>
       <c r="P400" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="Q400" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="R400" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -29829,13 +29826,13 @@
         <v>1215</v>
       </c>
       <c r="P401" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="Q401" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="R401" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -29852,7 +29849,7 @@
         <v>506</v>
       </c>
       <c r="E402" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F402" t="s">
         <v>728</v>
@@ -29885,13 +29882,13 @@
         <v>1216</v>
       </c>
       <c r="P402" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="Q402" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="R402" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -29908,7 +29905,7 @@
         <v>513</v>
       </c>
       <c r="E403" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F403" t="s">
         <v>757</v>
@@ -29941,13 +29938,13 @@
         <v>1215</v>
       </c>
       <c r="P403" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="Q403" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="R403" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -29997,13 +29994,13 @@
         <v>1246</v>
       </c>
       <c r="P404" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Q404" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="R404" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -30053,13 +30050,13 @@
         <v>1238</v>
       </c>
       <c r="P405" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Q405" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R405" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -30109,13 +30106,13 @@
         <v>1215</v>
       </c>
       <c r="P406" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="Q406" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="R406" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -30165,13 +30162,13 @@
         <v>1238</v>
       </c>
       <c r="P407" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="Q407" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="R407" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -30221,13 +30218,13 @@
         <v>1247</v>
       </c>
       <c r="P408" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="Q408" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="R408" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -30277,13 +30274,13 @@
         <v>1246</v>
       </c>
       <c r="P409" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="Q409" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="R409" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -30333,13 +30330,13 @@
         <v>1215</v>
       </c>
       <c r="P410" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="Q410" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="R410" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -30389,13 +30386,13 @@
         <v>1215</v>
       </c>
       <c r="P411" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="Q411" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="R411" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -30445,13 +30442,13 @@
         <v>1215</v>
       </c>
       <c r="P412" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="Q412" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="R412" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -30501,13 +30498,13 @@
         <v>1231</v>
       </c>
       <c r="P413" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="Q413" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="R413" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -30557,13 +30554,13 @@
         <v>1246</v>
       </c>
       <c r="P414" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="Q414" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="R414" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -30613,13 +30610,13 @@
         <v>1246</v>
       </c>
       <c r="P415" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="Q415" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="R415" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -30669,13 +30666,13 @@
         <v>1216</v>
       </c>
       <c r="P416" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="Q416" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="R416" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -30725,13 +30722,13 @@
         <v>1215</v>
       </c>
       <c r="P417" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q417" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="R417" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -30781,13 +30778,13 @@
         <v>1246</v>
       </c>
       <c r="P418" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q418" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="R418" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -30834,13 +30831,13 @@
         <v>1246</v>
       </c>
       <c r="P419" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="Q419" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="R419" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -30890,13 +30887,13 @@
         <v>1215</v>
       </c>
       <c r="P420" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="Q420" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="R420" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -30946,13 +30943,13 @@
         <v>1216</v>
       </c>
       <c r="P421" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="Q421" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="R421" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -31002,13 +30999,13 @@
         <v>1215</v>
       </c>
       <c r="P422" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="Q422" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="R422" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -31058,13 +31055,13 @@
         <v>1215</v>
       </c>
       <c r="P423" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="Q423" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="R423" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -31114,13 +31111,13 @@
         <v>1235</v>
       </c>
       <c r="P424" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="Q424" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="R424" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -31137,7 +31134,7 @@
         <v>496</v>
       </c>
       <c r="E425" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F425" t="s">
         <v>736</v>
@@ -31170,13 +31167,13 @@
         <v>1238</v>
       </c>
       <c r="P425" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="Q425" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="R425" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -31226,13 +31223,13 @@
         <v>1246</v>
       </c>
       <c r="P426" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="Q426" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="R426" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -31249,7 +31246,7 @@
         <v>510</v>
       </c>
       <c r="E427" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F427" t="s">
         <v>762</v>
@@ -31282,13 +31279,13 @@
         <v>1235</v>
       </c>
       <c r="P427" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="Q427" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="R427" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -31338,13 +31335,13 @@
         <v>1246</v>
       </c>
       <c r="P428" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="Q428" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="R428" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -31394,13 +31391,13 @@
         <v>1235</v>
       </c>
       <c r="P429" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="Q429" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="R429" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -31417,7 +31414,7 @@
         <v>506</v>
       </c>
       <c r="E430" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F430" t="s">
         <v>756</v>
@@ -31450,13 +31447,13 @@
         <v>1215</v>
       </c>
       <c r="P430" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="Q430" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="R430" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -31506,13 +31503,13 @@
         <v>1246</v>
       </c>
       <c r="P431" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="Q431" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="R431" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -31562,13 +31559,13 @@
         <v>1240</v>
       </c>
       <c r="P432" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="Q432" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="R432" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -31618,13 +31615,13 @@
         <v>1235</v>
       </c>
       <c r="P433" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="Q433" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="R433" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -31674,13 +31671,13 @@
         <v>1246</v>
       </c>
       <c r="P434" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="Q434" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="R434" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -31730,13 +31727,13 @@
         <v>1215</v>
       </c>
       <c r="P435" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="Q435" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="R435" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -31786,13 +31783,13 @@
         <v>1246</v>
       </c>
       <c r="P436" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="Q436" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="R436" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -31809,7 +31806,7 @@
         <v>520</v>
       </c>
       <c r="E437" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F437" t="s">
         <v>736</v>
@@ -31842,13 +31839,13 @@
         <v>1236</v>
       </c>
       <c r="P437" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="Q437" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="R437" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -31898,13 +31895,13 @@
         <v>1235</v>
       </c>
       <c r="P438" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="Q438" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="R438" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -31954,13 +31951,13 @@
         <v>1235</v>
       </c>
       <c r="P439" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="Q439" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="R439" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -32010,13 +32007,13 @@
         <v>1235</v>
       </c>
       <c r="P440" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="Q440" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="R440" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -32066,13 +32063,13 @@
         <v>1240</v>
       </c>
       <c r="P441" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="Q441" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="R441" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -32122,13 +32119,13 @@
         <v>1246</v>
       </c>
       <c r="P442" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="Q442" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="R442" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -32178,13 +32175,13 @@
         <v>1240</v>
       </c>
       <c r="P443" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="Q443" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="R443" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -32234,13 +32231,13 @@
         <v>1246</v>
       </c>
       <c r="P444" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="Q444" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="R444" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -32290,13 +32287,13 @@
         <v>1246</v>
       </c>
       <c r="P445" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="Q445" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="R445" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -32313,7 +32310,7 @@
         <v>492</v>
       </c>
       <c r="E446" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F446" t="s">
         <v>762</v>
@@ -32346,13 +32343,13 @@
         <v>1246</v>
       </c>
       <c r="P446" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="Q446" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="R446" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -32402,13 +32399,13 @@
         <v>1235</v>
       </c>
       <c r="P447" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="Q447" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="R447" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -32458,13 +32455,13 @@
         <v>1235</v>
       </c>
       <c r="P448" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="Q448" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="R448" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -32511,13 +32508,13 @@
         <v>1247</v>
       </c>
       <c r="P449" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Q449" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="R449" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -32567,13 +32564,13 @@
         <v>1240</v>
       </c>
       <c r="P450" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Q450" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="R450" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -32620,13 +32617,13 @@
         <v>1235</v>
       </c>
       <c r="P451" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="Q451" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="R451" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -32676,13 +32673,13 @@
         <v>1246</v>
       </c>
       <c r="P452" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="Q452" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="R452" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -32699,7 +32696,7 @@
         <v>499</v>
       </c>
       <c r="E453" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F453" t="s">
         <v>756</v>
@@ -32732,13 +32729,13 @@
         <v>1231</v>
       </c>
       <c r="P453" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="Q453" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="R453" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -32788,13 +32785,13 @@
         <v>1235</v>
       </c>
       <c r="P454" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="Q454" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="R454" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -32844,13 +32841,13 @@
         <v>1240</v>
       </c>
       <c r="P455" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="Q455" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="R455" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -32900,13 +32897,13 @@
         <v>1235</v>
       </c>
       <c r="P456" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="Q456" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="R456" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -32956,13 +32953,13 @@
         <v>1235</v>
       </c>
       <c r="P457" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="Q457" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="R457" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -33012,13 +33009,13 @@
         <v>1235</v>
       </c>
       <c r="P458" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="Q458" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="R458" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -33068,13 +33065,13 @@
         <v>1215</v>
       </c>
       <c r="P459" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="Q459" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="R459" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -33124,13 +33121,13 @@
         <v>1241</v>
       </c>
       <c r="P460" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Q460" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="R460" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -33180,13 +33177,13 @@
         <v>1236</v>
       </c>
       <c r="P461" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="Q461" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="R461" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -33236,13 +33233,13 @@
         <v>1215</v>
       </c>
       <c r="P462" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="Q462" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="R462" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -33292,13 +33289,13 @@
         <v>1241</v>
       </c>
       <c r="P463" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="Q463" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="R463" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
   </sheetData>
